--- a/biology/Botanique/Lys_de_Colombie/Lys_de_Colombie.xlsx
+++ b/biology/Botanique/Lys_de_Colombie/Lys_de_Colombie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lilium columbianum
 Le Lys de Colombie (Lilium columbianum) est une espèce de lys originaire de l'ouest de l'Amérique du Nord. On le rencontre dans les forêts ouvertes et les clairières du sud de la Colombie-Britannique au Canada au nord de la Californie et l'Est de l'Idaho au Nevada, aux États-Unis.
@@ -514,7 +526,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut être cultivé dans des jardins au sein de son aire de répartition naturelle. Il préfère les sols riches en matières organiques et humides (mais bien drainés). Bulbes et graines sont disponibles dans les panèteries et les plantes dans la nature doivent être respectées car souvent ne survivant pas à la transplantation. Certains le fument ou l'inhalent, ses effets euphorisants étant particulièrement appréciés.
 </t>
